--- a/output/fit_clients/fit_round_481.xlsx
+++ b/output/fit_clients/fit_round_481.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2343460046.792085</v>
+        <v>1720808258.228308</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09159385531981878</v>
+        <v>0.08703461492900738</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04183320487539444</v>
+        <v>0.03503024285642498</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1171730065.244635</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2533544014.89808</v>
+        <v>1778166842.433048</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1494373158425205</v>
+        <v>0.1488850784526444</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04598488387448548</v>
+        <v>0.04919002841932243</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1266772130.15489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3688291813.453598</v>
+        <v>4254446538.145445</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1581657699963028</v>
+        <v>0.1118588346945858</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03655967035446902</v>
+        <v>0.03258815821294178</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>173</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1844145898.846874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2784508569.438075</v>
+        <v>2838630809.731479</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1034785173295549</v>
+        <v>0.07133993587515995</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03499262756982323</v>
+        <v>0.03504892841950853</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>177</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1392254368.855537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2334058518.046206</v>
+        <v>2237513957.212114</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1318045783983295</v>
+        <v>0.1421306198973727</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05580696905745021</v>
+        <v>0.04546173639423346</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>92</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1167029252.485785</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2475450509.112002</v>
+        <v>2785357296.218518</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07775891435382713</v>
+        <v>0.06681015290870018</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03121703746133006</v>
+        <v>0.04050891458625241</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>150</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1237725269.934112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3828496645.709109</v>
+        <v>3442452702.500884</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2134358734648563</v>
+        <v>0.1616639286358186</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02548126673034314</v>
+        <v>0.02512820208083035</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>153</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1914248465.085894</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2070860786.666691</v>
+        <v>2135971118.649409</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1983962047679418</v>
+        <v>0.1988757364074893</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02311096244087584</v>
+        <v>0.03707913785622389</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1035430410.142005</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5902639054.600575</v>
+        <v>5104547763.073188</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1620096218808921</v>
+        <v>0.1361073239587725</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03528742064850625</v>
+        <v>0.04733599276518119</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>202</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2951319696.526014</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3595637123.719273</v>
+        <v>3637333023.908533</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1550099624677074</v>
+        <v>0.1707507367604186</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04548086209430983</v>
+        <v>0.0345694577281211</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>199</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1797818546.363799</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3019261115.628792</v>
+        <v>2527877082.767722</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1829356065358207</v>
+        <v>0.1412025782124487</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04495919960464925</v>
+        <v>0.05390075030916981</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>162</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1509630577.622334</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4798222181.453289</v>
+        <v>5096111487.825074</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07592996209778539</v>
+        <v>0.07878768578794224</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03108703027234605</v>
+        <v>0.02784446424547832</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>161</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2399111105.135119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3002487129.289588</v>
+        <v>2468417164.736453</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1541484079983726</v>
+        <v>0.1849111834996397</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03508349798442136</v>
+        <v>0.03662394635154076</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>154</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1501243598.924391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1361023602.67309</v>
+        <v>1820055261.148062</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0847254702663537</v>
+        <v>0.08091156111033543</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03567002672621721</v>
+        <v>0.03533562752375607</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>680511855.3451883</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2581984252.967873</v>
+        <v>1938152077.946653</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1043380686238632</v>
+        <v>0.09821140990140675</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04372094477696355</v>
+        <v>0.03876614183926098</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1290992149.992643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4196670157.480572</v>
+        <v>4677468573.268573</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1740614188281273</v>
+        <v>0.1300055343749782</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04513450142778338</v>
+        <v>0.04492232993298365</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2098335103.660201</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2671211077.12642</v>
+        <v>3888847203.692302</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1351768987684999</v>
+        <v>0.1556391308576922</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0313366161906924</v>
+        <v>0.03244237552002386</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>157</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1335605592.707259</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>828115181.0577747</v>
+        <v>1331962101.339724</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1491053802842939</v>
+        <v>0.149125017221461</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02743698570433262</v>
+        <v>0.02527689785844739</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>414057577.9547755</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1933300345.18567</v>
+        <v>1872498092.123743</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1462989655195026</v>
+        <v>0.1320328865988737</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0270965746413933</v>
+        <v>0.02755845122612919</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>966650206.0636352</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1896993274.537416</v>
+        <v>2438322610.518596</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08784783843472029</v>
+        <v>0.06503923293619103</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03123679209982403</v>
+        <v>0.03521926064098168</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>948496683.1054229</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2748089746.84467</v>
+        <v>3025719807.100182</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1101495793138769</v>
+        <v>0.1078120218095857</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04859337698076976</v>
+        <v>0.05718687350915608</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1374044950.060998</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1299769678.759746</v>
+        <v>1258026430.668097</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1799074334400747</v>
+        <v>0.15578698222882</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0480999483956587</v>
+        <v>0.04423491119740208</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>649884859.0960981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2726159340.480518</v>
+        <v>3466020162.810096</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1297403870706238</v>
+        <v>0.1014834003274129</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03265828328792564</v>
+        <v>0.03343130313788169</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>140</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1363079723.915139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1415382960.124913</v>
+        <v>959395574.8614377</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09869430029287456</v>
+        <v>0.09999102739205444</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02451637331574588</v>
+        <v>0.03007252316234215</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>707691448.5185121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1224855932.009019</v>
+        <v>946525384.4959425</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07818169794681462</v>
+        <v>0.1058525803033989</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03006918738543514</v>
+        <v>0.02457988453138662</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>612427993.1488178</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4079231400.857545</v>
+        <v>4394502576.012465</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1149119480380116</v>
+        <v>0.1115358899310792</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02658308679264486</v>
+        <v>0.0187872075205042</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2039615706.655428</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3132596252.729937</v>
+        <v>3102359861.161042</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1462700872061599</v>
+        <v>0.1183942178686621</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04028856719767616</v>
+        <v>0.0473171481574737</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1566298149.111533</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3607998285.825377</v>
+        <v>5792360570.840919</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09427885973040911</v>
+        <v>0.1215335404625816</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02810068686631265</v>
+        <v>0.02937926923827873</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>212</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1803999186.988989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2256100139.962413</v>
+        <v>1653544468.274264</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1251791810359784</v>
+        <v>0.139305665915799</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02625163222289068</v>
+        <v>0.02946647860674912</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1128050136.61634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1381543027.6523</v>
+        <v>1124466177.290283</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08836817033885572</v>
+        <v>0.08178721522935345</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03914309914080082</v>
+        <v>0.0383867765209949</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>690771422.571977</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1750287601.101469</v>
+        <v>1145345825.427393</v>
       </c>
       <c r="F32" t="n">
-        <v>0.105616361228729</v>
+        <v>0.0938306823022854</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03378862171581307</v>
+        <v>0.03546013537597475</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>875143920.766649</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2776257683.677122</v>
+        <v>3123224916.814294</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1380182716661155</v>
+        <v>0.168991290255367</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04561795849260718</v>
+        <v>0.03882519671639341</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>147</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1388128856.533975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1204003955.201399</v>
+        <v>1104955706.538844</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1051546434324676</v>
+        <v>0.1156452164259364</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02099217272765642</v>
+        <v>0.02162303545128182</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>602001982.0226505</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1317051531.827043</v>
+        <v>1064566083.394914</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1180824218836169</v>
+        <v>0.08664703754629316</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0436280089273095</v>
+        <v>0.03367227830662068</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>658525714.9868858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2295625027.740042</v>
+        <v>2149359744.883803</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1297722875089176</v>
+        <v>0.1236599127998177</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01848360794402839</v>
+        <v>0.02343000698140184</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>122</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1147812552.254597</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2848875466.806884</v>
+        <v>2227302171.352147</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06850080534757498</v>
+        <v>0.1116612151263099</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03182271905880336</v>
+        <v>0.02588973236393174</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>128</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1424437877.507437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1861511163.835702</v>
+        <v>1851118292.237237</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09740771337005813</v>
+        <v>0.1148293195445479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03786966913685784</v>
+        <v>0.02521083939983051</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>930755580.1291822</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1942559432.785063</v>
+        <v>1968434024.215526</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1555730290429383</v>
+        <v>0.1509840608476971</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02578923241906699</v>
+        <v>0.0316229557500379</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>971279719.7047796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1570812176.155405</v>
+        <v>1162786415.123025</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1519982835765434</v>
+        <v>0.1001731946633106</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05219365330319679</v>
+        <v>0.05060863526286483</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>785406036.5672623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2886008257.667216</v>
+        <v>2553389031.770722</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1567149907216902</v>
+        <v>0.158955080154549</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04062975667204267</v>
+        <v>0.02851320182627821</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>116</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1443004116.323012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3749774788.67035</v>
+        <v>3015506829.713627</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1192110806960881</v>
+        <v>0.1220864211843253</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03532846142007184</v>
+        <v>0.03715548842005664</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1874887406.393616</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2299844942.646135</v>
+        <v>2303700549.478042</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1564479469438688</v>
+        <v>0.1636163973727373</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02486197942461908</v>
+        <v>0.01606096659313519</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>167</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1149922540.135809</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2193146962.017972</v>
+        <v>1693976607.445795</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06830360912787596</v>
+        <v>0.1031722887025212</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03369480671031579</v>
+        <v>0.0271203960904301</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1096573625.894167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2210098898.427442</v>
+        <v>2359204380.606799</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1396490903791102</v>
+        <v>0.1388796934406488</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03460282225920971</v>
+        <v>0.0342827417623606</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1105049461.26387</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4361638705.89262</v>
+        <v>4675268678.4808</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1713768915269449</v>
+        <v>0.1774697596692215</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05454362558871392</v>
+        <v>0.03716074292320126</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>171</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2180819343.248034</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4180823383.289395</v>
+        <v>4598229342.942039</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2016656922990175</v>
+        <v>0.1715315471924174</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0528691781923445</v>
+        <v>0.05931346896715865</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2090411701.057345</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4061689171.029248</v>
+        <v>3448121660.345959</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1098384837248691</v>
+        <v>0.1105371379907224</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02472307492715531</v>
+        <v>0.03586855722810364</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>156</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2030844616.297755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1868878542.827069</v>
+        <v>1668321302.704464</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1876086340305808</v>
+        <v>0.1357579530224491</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0420855759085114</v>
+        <v>0.02891074961719503</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>934439246.1240519</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2622580066.796873</v>
+        <v>3815069805.148709</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1466487082056536</v>
+        <v>0.1548680673335751</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0350174943376994</v>
+        <v>0.04587769407918229</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>163</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1311290120.101059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1276945273.574433</v>
+        <v>991570567.6864002</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1613484313778676</v>
+        <v>0.167031015868494</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04831033415993811</v>
+        <v>0.03867894371241151</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>638472675.8813295</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4435795673.157419</v>
+        <v>3922796970.686107</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1205137224787044</v>
+        <v>0.1184615841530829</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05275607725615881</v>
+        <v>0.04750401990360311</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>198</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2217897867.427859</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3583618723.216475</v>
+        <v>3297785251.329973</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1911480932268185</v>
+        <v>0.1964984786771284</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02452018520488231</v>
+        <v>0.03005723607935244</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>138</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1791809353.788503</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3246035418.535962</v>
+        <v>3407184402.71667</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1258527521080363</v>
+        <v>0.1405162557643398</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04105074102504343</v>
+        <v>0.04570099644860093</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>156</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1623017714.135825</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3360270402.908615</v>
+        <v>4670034320.940073</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1975893152936984</v>
+        <v>0.1902870827363996</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02105431066424436</v>
+        <v>0.02776141157199274</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1680135148.130399</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1848099676.092405</v>
+        <v>1593313347.850941</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1427272980265607</v>
+        <v>0.1381453129557419</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05614484246229225</v>
+        <v>0.05215128051978841</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>924049828.7449479</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2886934343.852396</v>
+        <v>3299655118.176424</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1417112480116199</v>
+        <v>0.1486318658749138</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02257912291574937</v>
+        <v>0.0266223804220824</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>153</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1443467166.860236</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1688145502.914721</v>
+        <v>1247318007.175267</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1394824612142321</v>
+        <v>0.1425492467027524</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03016352889297504</v>
+        <v>0.03608140258865343</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>844072765.4433652</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4499139479.990007</v>
+        <v>3671740938.407278</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1225029153130333</v>
+        <v>0.09587173449696167</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0372979834380127</v>
+        <v>0.03076644908848172</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>137</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2249569691.895947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2881168945.185882</v>
+        <v>2561632673.141994</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1533864604930424</v>
+        <v>0.1439615597027636</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0334009473675397</v>
+        <v>0.02406288898244844</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>151</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1440584530.503148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2284269093.935978</v>
+        <v>2504020341.141316</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1556636445199455</v>
+        <v>0.1254688880727093</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02944495993424252</v>
+        <v>0.03182890500967266</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>165</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1142134594.953642</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1822577193.761381</v>
+        <v>1522560293.335757</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1627655004540971</v>
+        <v>0.1447748724239896</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04900348195103198</v>
+        <v>0.04032980324997509</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>911288628.3722166</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5054215777.994594</v>
+        <v>4732702551.982366</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0990867683768808</v>
+        <v>0.09815739842507346</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04141563066200141</v>
+        <v>0.03153008763927475</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2527107904.391931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3966673391.958704</v>
+        <v>4606436126.762824</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1835015632434113</v>
+        <v>0.1191335171727617</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02422598942509541</v>
+        <v>0.03419561322550182</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>150</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1983336729.516446</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4973297278.040851</v>
+        <v>4966948362.763162</v>
       </c>
       <c r="F65" t="n">
-        <v>0.138405853238342</v>
+        <v>0.1746575317355959</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02983518721762167</v>
+        <v>0.02926672628648121</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>172</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2486648599.548774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4737214642.437418</v>
+        <v>5578956265.089464</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1102593578236716</v>
+        <v>0.1315980305253594</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03195617884796843</v>
+        <v>0.03501225312657467</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>141</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2368607334.360614</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2516925015.594708</v>
+        <v>2639862407.17</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08419786622020452</v>
+        <v>0.1023505629752871</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03107121217104344</v>
+        <v>0.04818362787240405</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>154</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1258462566.953808</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4261319735.659443</v>
+        <v>4833598258.739376</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1407971577190853</v>
+        <v>0.140723857895629</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04564216464801892</v>
+        <v>0.03296415940479523</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>154</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2130659879.477007</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2298977259.219163</v>
+        <v>2302206235.398736</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1816260992614604</v>
+        <v>0.1678317122892397</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06020331735353889</v>
+        <v>0.04872830725761464</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1149488673.242448</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2378378773.182265</v>
+        <v>3679347921.585137</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09220598589501787</v>
+        <v>0.08194050133876049</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04162964318583788</v>
+        <v>0.03865181243115103</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>137</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1189189323.126932</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3993787792.265027</v>
+        <v>4473216662.731929</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1242788727517303</v>
+        <v>0.1558100343925317</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02564089619832804</v>
+        <v>0.03153079417408894</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>175</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1996893926.724553</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2154816272.305358</v>
+        <v>2271173526.687993</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1003700444943336</v>
+        <v>0.1043297248514949</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04845824130677437</v>
+        <v>0.03961379933064147</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1077408057.566919</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2172914960.898645</v>
+        <v>2596058001.467076</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09711637049210692</v>
+        <v>0.09070654079277347</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03933533479737084</v>
+        <v>0.0401074041536599</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>181</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1086457552.182748</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3804639583.507735</v>
+        <v>2594661117.918962</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1829456997671016</v>
+        <v>0.1537233437672498</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03050892938007684</v>
+        <v>0.02218672640336454</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>164</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1902319787.632912</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1610289484.048585</v>
+        <v>2113359962.8803</v>
       </c>
       <c r="F75" t="n">
-        <v>0.110364936071478</v>
+        <v>0.1390094117716007</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02415467370925533</v>
+        <v>0.02616751450038415</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>805144742.7304817</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3995762659.187152</v>
+        <v>3371954704.017971</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1026056447225915</v>
+        <v>0.08136128567204234</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02941791851751723</v>
+        <v>0.02868963778788638</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1997881314.168891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1561720384.480993</v>
+        <v>2122855371.430986</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1583850069006731</v>
+        <v>0.1543899798009704</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0298235267224398</v>
+        <v>0.02942656177471367</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>780860189.0539044</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3232592489.028053</v>
+        <v>4285273361.790646</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09854117190951707</v>
+        <v>0.09166983447227842</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03610687997356524</v>
+        <v>0.04841034230965676</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>167</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1616296265.193024</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1590316572.196558</v>
+        <v>1443643957.516185</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1500904235035121</v>
+        <v>0.1367917421573299</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03289283258418304</v>
+        <v>0.03834467596513908</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>795158336.1370982</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5289297658.178374</v>
+        <v>5372338828.205922</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09696559360459561</v>
+        <v>0.1087316089570495</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02745368663106</v>
+        <v>0.03281161125233719</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2644648892.694612</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3558592363.116791</v>
+        <v>5086151772.173975</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1147805925634498</v>
+        <v>0.1098566399632063</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02409447413551407</v>
+        <v>0.03017229683322497</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1779296128.413004</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4546114688.296823</v>
+        <v>4004600966.299426</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1368692105514593</v>
+        <v>0.16299782203041</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02684872390185264</v>
+        <v>0.02479722445472917</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>168</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2273057353.431666</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1736351025.578123</v>
+        <v>2229087272.655028</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1531605591319004</v>
+        <v>0.1108774340956467</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0305808668552208</v>
+        <v>0.03130667239558168</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>868175465.3098202</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2555480835.538949</v>
+        <v>1633088755.284194</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08392697660340037</v>
+        <v>0.1199164542253724</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03267193674951592</v>
+        <v>0.03748448307690193</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1277740341.43754</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3254730159.326594</v>
+        <v>2571744315.741865</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1121868156597076</v>
+        <v>0.1488844774053782</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04148536580875946</v>
+        <v>0.0551865633081296</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>181</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1627365167.960179</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2559216435.685911</v>
+        <v>2022297888.341129</v>
       </c>
       <c r="F86" t="n">
-        <v>0.119334858819261</v>
+        <v>0.1607673455931758</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02523166818624052</v>
+        <v>0.01905143118198466</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1279608323.261422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1131560628.548784</v>
+        <v>1137206844.730456</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1645794195031316</v>
+        <v>0.1873179197106481</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04095629225209401</v>
+        <v>0.03823329955364375</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>565780352.3325483</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3255217374.116583</v>
+        <v>2810284155.100253</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1543525970201823</v>
+        <v>0.1594354500567333</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03597595184375614</v>
+        <v>0.02522823881826408</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>191</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1627608742.745512</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3325798816.604775</v>
+        <v>3088346934.269039</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1505499711592768</v>
+        <v>0.1364505753716434</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03822554321196805</v>
+        <v>0.03409275305068667</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>163</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1662899422.552498</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2116481987.941688</v>
+        <v>1893000120.685478</v>
       </c>
       <c r="F90" t="n">
-        <v>0.129811933534062</v>
+        <v>0.1265131938561259</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05234650909829622</v>
+        <v>0.04183614763725819</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1058241085.529469</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1680076244.932844</v>
+        <v>1567301385.783393</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1246392791549256</v>
+        <v>0.1194224246380963</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04484704960623632</v>
+        <v>0.05421004227574339</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>840038137.4266219</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1955490369.107409</v>
+        <v>1949289087.760798</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06852359410263943</v>
+        <v>0.08868460929025268</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03135151435171189</v>
+        <v>0.04496906686513433</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>977745127.4003284</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3514659100.117829</v>
+        <v>4073309328.154483</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1207076519428138</v>
+        <v>0.1312676364543079</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03438114789989256</v>
+        <v>0.03532171448366435</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>144</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1757329582.062701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2520788176.295066</v>
+        <v>2309156873.763393</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1093179136295723</v>
+        <v>0.1476913308466103</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03165436843193271</v>
+        <v>0.03713823483188709</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1260394154.274771</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2021761818.343488</v>
+        <v>2634288715.904243</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09482677912765079</v>
+        <v>0.09058699860340497</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04152626176912538</v>
+        <v>0.03903519622010539</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1010880980.09752</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2267904238.062239</v>
+        <v>1905818975.492198</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1214058066214562</v>
+        <v>0.1222012346328602</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03154511404645199</v>
+        <v>0.03110971574541089</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1133952077.451205</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3531851876.518619</v>
+        <v>3322858510.322286</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1344126188613285</v>
+        <v>0.1174999744146933</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0269402555467739</v>
+        <v>0.01955070808788703</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>154</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1765925957.012625</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3940644352.888517</v>
+        <v>3237904504.687862</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08442089515276668</v>
+        <v>0.1208582363215708</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02188266927856095</v>
+        <v>0.02450381096467909</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1970322224.952239</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3368141144.069742</v>
+        <v>2378269139.268922</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1033473445436743</v>
+        <v>0.1210766934873161</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02930161958862488</v>
+        <v>0.0323152812627428</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>152</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1684070584.648793</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4389588088.826002</v>
+        <v>4526984360.667177</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1368300661376455</v>
+        <v>0.170463589715093</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02800306732734966</v>
+        <v>0.01899726604327621</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>147</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2194794146.219485</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2224280797.940558</v>
+        <v>2963004391.061505</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1362284881358967</v>
+        <v>0.1938388110607758</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04167871872052459</v>
+        <v>0.0367974603278272</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>196</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1112140385.580651</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_481.xlsx
+++ b/output/fit_clients/fit_round_481.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1720808258.228308</v>
+        <v>2025234242.626082</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08703461492900738</v>
+        <v>0.09613555936933486</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03503024285642498</v>
+        <v>0.02766257244096091</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1778166842.433048</v>
+        <v>1632296384.888033</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1488850784526444</v>
+        <v>0.153803920287394</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04919002841932243</v>
+        <v>0.03899802200669727</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4254446538.145445</v>
+        <v>4469663967.624786</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1118588346945858</v>
+        <v>0.1253254894603583</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03258815821294178</v>
+        <v>0.03383788755530236</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2838630809.731479</v>
+        <v>4086812035.633076</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07133993587515995</v>
+        <v>0.09668800060592517</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03504892841950853</v>
+        <v>0.04281212280437934</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2237513957.212114</v>
+        <v>2759754449.840499</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1421306198973727</v>
+        <v>0.1316748490652956</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04546173639423346</v>
+        <v>0.04146180199874915</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2785357296.218518</v>
+        <v>2862439938.418005</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06681015290870018</v>
+        <v>0.0828892858372012</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04050891458625241</v>
+        <v>0.04365266210104705</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3442452702.500884</v>
+        <v>2406276108.650473</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1616639286358186</v>
+        <v>0.1579291934403462</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02512820208083035</v>
+        <v>0.02946530286446373</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2135971118.649409</v>
+        <v>2158455172.548556</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1988757364074893</v>
+        <v>0.1677522907650548</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03707913785622389</v>
+        <v>0.02779383214368192</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5104547763.073188</v>
+        <v>4744663991.440661</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1361073239587725</v>
+        <v>0.1477997575228715</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04733599276518119</v>
+        <v>0.03946773047989079</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3637333023.908533</v>
+        <v>2787914911.796387</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1707507367604186</v>
+        <v>0.1552847712740654</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0345694577281211</v>
+        <v>0.03822628313659555</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2527877082.767722</v>
+        <v>2239933731.899259</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1412025782124487</v>
+        <v>0.1713286365330776</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05390075030916981</v>
+        <v>0.03277285855654086</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5096111487.825074</v>
+        <v>5184108524.89</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07878768578794224</v>
+        <v>0.07522712475580387</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02784446424547832</v>
+        <v>0.02871988362910389</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2468417164.736453</v>
+        <v>2742931021.023027</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1849111834996397</v>
+        <v>0.1154810170482175</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03662394635154076</v>
+        <v>0.04224184035765158</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1820055261.148062</v>
+        <v>1539265643.018504</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08091156111033543</v>
+        <v>0.09761490540641465</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03533562752375607</v>
+        <v>0.03305504206162903</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1938152077.946653</v>
+        <v>2176494963.529386</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09821140990140675</v>
+        <v>0.1043580931097148</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03876614183926098</v>
+        <v>0.03623881443511642</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4677468573.268573</v>
+        <v>3699659024.25252</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1300055343749782</v>
+        <v>0.1263974062892593</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04492232993298365</v>
+        <v>0.03363893411759859</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3888847203.692302</v>
+        <v>2835226638.505301</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1556391308576922</v>
+        <v>0.1625970557821921</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03244237552002386</v>
+        <v>0.03175578188119906</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1331962101.339724</v>
+        <v>1152856952.838936</v>
       </c>
       <c r="F19" t="n">
-        <v>0.149125017221461</v>
+        <v>0.1854098045811218</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02527689785844739</v>
+        <v>0.01883091666196318</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1872498092.123743</v>
+        <v>1912733198.614464</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1320328865988737</v>
+        <v>0.1507080199668806</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02755845122612919</v>
+        <v>0.02453078765513122</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2438322610.518596</v>
+        <v>2018793275.425677</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06503923293619103</v>
+        <v>0.07228690192397461</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03521926064098168</v>
+        <v>0.02998462830913381</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3025719807.100182</v>
+        <v>2439990446.373543</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1078120218095857</v>
+        <v>0.09030669796617326</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05718687350915608</v>
+        <v>0.0387776149719983</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1258026430.668097</v>
+        <v>1260623364.059756</v>
       </c>
       <c r="F23" t="n">
-        <v>0.15578698222882</v>
+        <v>0.1602411694759279</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04423491119740208</v>
+        <v>0.05180897253438992</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3466020162.810096</v>
+        <v>3015103409.358907</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1014834003274129</v>
+        <v>0.1158939129653311</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03343130313788169</v>
+        <v>0.02658792973023064</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>959395574.8614377</v>
+        <v>1333384942.586066</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09999102739205444</v>
+        <v>0.09461964956996535</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03007252316234215</v>
+        <v>0.0208472812465938</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>946525384.4959425</v>
+        <v>1037646666.320644</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1058525803033989</v>
+        <v>0.09821402751453033</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02457988453138662</v>
+        <v>0.03076848659045872</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4394502576.012465</v>
+        <v>3673226570.673283</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1115358899310792</v>
+        <v>0.1330446757288782</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0187872075205042</v>
+        <v>0.01841008213099109</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3102359861.161042</v>
+        <v>3095821214.759676</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1183942178686621</v>
+        <v>0.1193586319587386</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0473171481574737</v>
+        <v>0.04055467362150971</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5792360570.840919</v>
+        <v>4680991136.892632</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1215335404625816</v>
+        <v>0.098910775863187</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02937926923827873</v>
+        <v>0.04452677771927856</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1653544468.274264</v>
+        <v>2156643731.124863</v>
       </c>
       <c r="F30" t="n">
-        <v>0.139305665915799</v>
+        <v>0.09836168628887604</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02946647860674912</v>
+        <v>0.03687533854873967</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1124466177.290283</v>
+        <v>1459742105.666347</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08178721522935345</v>
+        <v>0.1007686212451769</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0383867765209949</v>
+        <v>0.04995856701836576</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1145345825.427393</v>
+        <v>1176812443.82558</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0938306823022854</v>
+        <v>0.09814596412486944</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03546013537597475</v>
+        <v>0.03026886753157069</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3123224916.814294</v>
+        <v>2796861976.721963</v>
       </c>
       <c r="F33" t="n">
-        <v>0.168991290255367</v>
+        <v>0.1577067060889653</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03882519671639341</v>
+        <v>0.0520377204098753</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1104955706.538844</v>
+        <v>1027776847.646485</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1156452164259364</v>
+        <v>0.07474054423251793</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02162303545128182</v>
+        <v>0.0231877986344144</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1064566083.394914</v>
+        <v>1152555286.743106</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08664703754629316</v>
+        <v>0.08332957668851235</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03367227830662068</v>
+        <v>0.03134554508224709</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2149359744.883803</v>
+        <v>2486176184.77413</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1236599127998177</v>
+        <v>0.1672107476201928</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02343000698140184</v>
+        <v>0.02517769222463753</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2227302171.352147</v>
+        <v>2705832488.038195</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1116612151263099</v>
+        <v>0.08714251931062959</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02588973236393174</v>
+        <v>0.03244323339687119</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1851118292.237237</v>
+        <v>2128523318.491011</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1148293195445479</v>
+        <v>0.1166254295565453</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02521083939983051</v>
+        <v>0.02972504369577026</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1968434024.215526</v>
+        <v>2063076925.781211</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1509840608476971</v>
+        <v>0.1239158431231782</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0316229557500379</v>
+        <v>0.02972894753375876</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1162786415.123025</v>
+        <v>1574049027.091971</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1001731946633106</v>
+        <v>0.111900426363749</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05060863526286483</v>
+        <v>0.04761931535273604</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2553389031.770722</v>
+        <v>2174288787.288993</v>
       </c>
       <c r="F41" t="n">
-        <v>0.158955080154549</v>
+        <v>0.1208916429516557</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02851320182627821</v>
+        <v>0.04096063612116175</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3015506829.713627</v>
+        <v>3164864646.835433</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1220864211843253</v>
+        <v>0.08452653851514887</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03715548842005664</v>
+        <v>0.02838424986571631</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2303700549.478042</v>
+        <v>1853963444.812675</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1636163973727373</v>
+        <v>0.1858470000077266</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01606096659313519</v>
+        <v>0.02439193809868329</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1693976607.445795</v>
+        <v>2328523762.057085</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1031722887025212</v>
+        <v>0.07800288673612214</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0271203960904301</v>
+        <v>0.02559872586747729</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2359204380.606799</v>
+        <v>2331252562.294141</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1388796934406488</v>
+        <v>0.1634954020995209</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0342827417623606</v>
+        <v>0.04281979597183659</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4675268678.4808</v>
+        <v>3751012598.975644</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1774697596692215</v>
+        <v>0.1161375951083238</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03716074292320126</v>
+        <v>0.04443024450112582</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4598229342.942039</v>
+        <v>3773749122.408361</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1715315471924174</v>
+        <v>0.1995958732749819</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05931346896715865</v>
+        <v>0.05942635796902047</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3448121660.345959</v>
+        <v>4367627275.235269</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1105371379907224</v>
+        <v>0.06843571243130628</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03586855722810364</v>
+        <v>0.03004830619408349</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1668321302.704464</v>
+        <v>1351964163.760329</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1357579530224491</v>
+        <v>0.1198404957804536</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02891074961719503</v>
+        <v>0.03428830790068066</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3815069805.148709</v>
+        <v>3703392531.88046</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1548680673335751</v>
+        <v>0.1313065374801103</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04587769407918229</v>
+        <v>0.04230698645627772</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>991570567.6864002</v>
+        <v>1152421823.351635</v>
       </c>
       <c r="F51" t="n">
-        <v>0.167031015868494</v>
+        <v>0.165456451794238</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03867894371241151</v>
+        <v>0.03446795568311769</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3922796970.686107</v>
+        <v>4602602695.38644</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1184615841530829</v>
+        <v>0.1207135537993665</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04750401990360311</v>
+        <v>0.04565335606545511</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3297785251.329973</v>
+        <v>2920469932.698821</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1964984786771284</v>
+        <v>0.1553190839367791</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03005723607935244</v>
+        <v>0.02342454940318947</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3407184402.71667</v>
+        <v>3215403777.812309</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1405162557643398</v>
+        <v>0.1075674980480178</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04570099644860093</v>
+        <v>0.04789221469772403</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4670034320.940073</v>
+        <v>4934322501.730662</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1902870827363996</v>
+        <v>0.1816608025810626</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02776141157199274</v>
+        <v>0.02711350970500585</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1593313347.850941</v>
+        <v>1319392141.274532</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1381453129557419</v>
+        <v>0.120621771377085</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05215128051978841</v>
+        <v>0.0511118329184278</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3299655118.176424</v>
+        <v>3496949215.914141</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1486318658749138</v>
+        <v>0.1704386582083207</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0266223804220824</v>
+        <v>0.01849447640412921</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1247318007.175267</v>
+        <v>1874962116.314711</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1425492467027524</v>
+        <v>0.1369705131027509</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03608140258865343</v>
+        <v>0.0331862446466509</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3671740938.407278</v>
+        <v>4922681996.900102</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09587173449696167</v>
+        <v>0.08548750949392145</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03076644908848172</v>
+        <v>0.04938316043347322</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2561632673.141994</v>
+        <v>2978385137.583343</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1439615597027636</v>
+        <v>0.1798300302636474</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02406288898244844</v>
+        <v>0.03181488266203884</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2504020341.141316</v>
+        <v>2251540086.065935</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1254688880727093</v>
+        <v>0.1692098525236263</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03182890500967266</v>
+        <v>0.02451888160075931</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1522560293.335757</v>
+        <v>1422142268.883112</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1447748724239896</v>
+        <v>0.1595692280443882</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04032980324997509</v>
+        <v>0.04851834809513632</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4732702551.982366</v>
+        <v>4865466956.668146</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09815739842507346</v>
+        <v>0.08323886493060988</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03153008763927475</v>
+        <v>0.03039381108567006</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4606436126.762824</v>
+        <v>4821468911.058199</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1191335171727617</v>
+        <v>0.1573277724750188</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03419561322550182</v>
+        <v>0.02321336797740264</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4966948362.763162</v>
+        <v>5381581903.937321</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1746575317355959</v>
+        <v>0.1417345742997396</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02926672628648121</v>
+        <v>0.02172422074753552</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5578956265.089464</v>
+        <v>3719356416.070368</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1315980305253594</v>
+        <v>0.1435675414467801</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03501225312657467</v>
+        <v>0.04978050316928561</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2639862407.17</v>
+        <v>2815129728.482671</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1023505629752871</v>
+        <v>0.06610915975812011</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04818362787240405</v>
+        <v>0.04134257156621024</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4833598258.739376</v>
+        <v>3882099345.253505</v>
       </c>
       <c r="F68" t="n">
-        <v>0.140723857895629</v>
+        <v>0.1178804888750279</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03296415940479523</v>
+        <v>0.0445186540114698</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2302206235.398736</v>
+        <v>2300322862.499217</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1678317122892397</v>
+        <v>0.1500810343084472</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04872830725761464</v>
+        <v>0.05130299781240644</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3679347921.585137</v>
+        <v>3228872358.373548</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08194050133876049</v>
+        <v>0.07968815387053302</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03865181243115103</v>
+        <v>0.03104106594741654</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4473216662.731929</v>
+        <v>4785251638.420655</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1558100343925317</v>
+        <v>0.1664171849302291</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03153079417408894</v>
+        <v>0.02437731203995501</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2271173526.687993</v>
+        <v>1994988899.425604</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1043297248514949</v>
+        <v>0.06555134334291493</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03961379933064147</v>
+        <v>0.03958687910923599</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2596058001.467076</v>
+        <v>2204109400.960293</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09070654079277347</v>
+        <v>0.09750171896817768</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0401074041536599</v>
+        <v>0.04733381800758051</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2594661117.918962</v>
+        <v>3280509132.879287</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1537233437672498</v>
+        <v>0.1252511920761958</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02218672640336454</v>
+        <v>0.02869929036714078</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2113359962.8803</v>
+        <v>1520142222.794607</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1390094117716007</v>
+        <v>0.1157512361158327</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02616751450038415</v>
+        <v>0.03554265457402332</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3371954704.017971</v>
+        <v>4698605529.048453</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08136128567204234</v>
+        <v>0.09565570109278504</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02868963778788638</v>
+        <v>0.0307641714222139</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2122855371.430986</v>
+        <v>1851554542.506556</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1543899798009704</v>
+        <v>0.1406228353518179</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02942656177471367</v>
+        <v>0.02326360297935163</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4285273361.790646</v>
+        <v>3785766290.187721</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09166983447227842</v>
+        <v>0.1000253595989375</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04841034230965676</v>
+        <v>0.05094945954535896</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1443643957.516185</v>
+        <v>1465321600.7534</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1367917421573299</v>
+        <v>0.1320772954334304</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03834467596513908</v>
+        <v>0.02963660830583786</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5372338828.205922</v>
+        <v>5129194338.092485</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1087316089570495</v>
+        <v>0.1057399455982735</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03281161125233719</v>
+        <v>0.02643755159538895</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5086151772.173975</v>
+        <v>5011354755.450757</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1098566399632063</v>
+        <v>0.08478010900360508</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03017229683322497</v>
+        <v>0.03200459999552423</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4004600966.299426</v>
+        <v>3691713924.122</v>
       </c>
       <c r="F82" t="n">
-        <v>0.16299782203041</v>
+        <v>0.143705909964899</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02479722445472917</v>
+        <v>0.02856036461461386</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2229087272.655028</v>
+        <v>2424967802.071479</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1108774340956467</v>
+        <v>0.1083054986923438</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03130667239558168</v>
+        <v>0.03093292240407189</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1633088755.284194</v>
+        <v>2171480528.917427</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1199164542253724</v>
+        <v>0.08859184056937058</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03748448307690193</v>
+        <v>0.03340829110886435</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2571744315.741865</v>
+        <v>3503094218.039594</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1488844774053782</v>
+        <v>0.1597478707354799</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0551865633081296</v>
+        <v>0.0519132150353106</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2022297888.341129</v>
+        <v>1983228839.671979</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1607673455931758</v>
+        <v>0.1055356959011714</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01905143118198466</v>
+        <v>0.02029532123673707</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1137206844.730456</v>
+        <v>1143700109.627615</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1873179197106481</v>
+        <v>0.1308217511650286</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03823329955364375</v>
+        <v>0.0279900658997982</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2810284155.100253</v>
+        <v>3247682913.243411</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1594354500567333</v>
+        <v>0.1749223460200265</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02522823881826408</v>
+        <v>0.03952631610674565</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3088346934.269039</v>
+        <v>2574841858.706614</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1364505753716434</v>
+        <v>0.1329179743749108</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03409275305068667</v>
+        <v>0.03882885787227022</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1893000120.685478</v>
+        <v>1529053021.264926</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1265131938561259</v>
+        <v>0.09003415764851129</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04183614763725819</v>
+        <v>0.05501065687228554</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1567301385.783393</v>
+        <v>1370144596.250879</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1194224246380963</v>
+        <v>0.1359990535643412</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05421004227574339</v>
+        <v>0.04122077346933924</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1949289087.760798</v>
+        <v>2057326114.207917</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08868460929025268</v>
+        <v>0.06791393066617479</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04496906686513433</v>
+        <v>0.04251670760903385</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4073309328.154483</v>
+        <v>3427295301.384058</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1312676364543079</v>
+        <v>0.1329101912179268</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03532171448366435</v>
+        <v>0.04135082828161579</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2309156873.763393</v>
+        <v>2055359726.206468</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1476913308466103</v>
+        <v>0.1435218314447702</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03713823483188709</v>
+        <v>0.03740995115484399</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2634288715.904243</v>
+        <v>3184242746.782302</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09058699860340497</v>
+        <v>0.1151551415087788</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03903519622010539</v>
+        <v>0.05164814095375006</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1905818975.492198</v>
+        <v>2235610324.562387</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1222012346328602</v>
+        <v>0.1038367691375346</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03110971574541089</v>
+        <v>0.03885118922772894</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3322858510.322286</v>
+        <v>4713018526.950873</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1174999744146933</v>
+        <v>0.1726640613138678</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01955070808788703</v>
+        <v>0.0219280240014953</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3237904504.687862</v>
+        <v>2813697181.118519</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1208582363215708</v>
+        <v>0.09694373562109934</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02450381096467909</v>
+        <v>0.02003328940117073</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2378269139.268922</v>
+        <v>3008428430.693775</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1210766934873161</v>
+        <v>0.1346322347354876</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0323152812627428</v>
+        <v>0.03455201086425035</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4526984360.667177</v>
+        <v>4667845840.87529</v>
       </c>
       <c r="F100" t="n">
-        <v>0.170463589715093</v>
+        <v>0.1586083551959652</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01899726604327621</v>
+        <v>0.02053303040912011</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2963004391.061505</v>
+        <v>2865182830.892096</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1938388110607758</v>
+        <v>0.1533020623474188</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0367974603278272</v>
+        <v>0.05003558976597395</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_481.xlsx
+++ b/output/fit_clients/fit_round_481.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2025234242.626082</v>
+        <v>1704884782.319676</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09613555936933486</v>
+        <v>0.08097358384101717</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02766257244096091</v>
+        <v>0.03348581757839868</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1632296384.888033</v>
+        <v>2388496535.262708</v>
       </c>
       <c r="F3" t="n">
-        <v>0.153803920287394</v>
+        <v>0.1699426411345509</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03899802200669727</v>
+        <v>0.03178900612084399</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4469663967.624786</v>
+        <v>5020762231.405102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1253254894603583</v>
+        <v>0.1369994115705213</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03383788755530236</v>
+        <v>0.03514878039438897</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>242</v>
+      </c>
+      <c r="J4" t="n">
+        <v>481</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4086812035.633076</v>
+        <v>3535463830.125212</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09668800060592517</v>
+        <v>0.08647966663428298</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04281212280437934</v>
+        <v>0.04391677409460686</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>202</v>
+      </c>
+      <c r="J5" t="n">
+        <v>481</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2759754449.840499</v>
+        <v>2624744338.960891</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1316748490652956</v>
+        <v>0.09446786246222262</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04146180199874915</v>
+        <v>0.04609983179703749</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2862439938.418005</v>
+        <v>2604133490.58645</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0828892858372012</v>
+        <v>0.06399243714468672</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04365266210104705</v>
+        <v>0.03886459290757087</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2406276108.650473</v>
+        <v>3106388548.987658</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1579291934403462</v>
+        <v>0.1460732478856897</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02946530286446373</v>
+        <v>0.03354598801092318</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2158455172.548556</v>
+        <v>2306948394.359369</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1677522907650548</v>
+        <v>0.1721685295247845</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02779383214368192</v>
+        <v>0.03220534174577503</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4744663991.440661</v>
+        <v>3925327655.880473</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1477997575228715</v>
+        <v>0.2167200459517484</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03946773047989079</v>
+        <v>0.04539217582358537</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>366</v>
+      </c>
+      <c r="J10" t="n">
+        <v>480</v>
+      </c>
+      <c r="K10" t="n">
+        <v>28.74526858443839</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2787914911.796387</v>
+        <v>3361494561.666113</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1552847712740654</v>
+        <v>0.1916278555444632</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03822628313659555</v>
+        <v>0.04167091163160968</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>200</v>
+      </c>
+      <c r="J11" t="n">
+        <v>481</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32.67010888620035</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2239933731.899259</v>
+        <v>3150748072.738624</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1713286365330776</v>
+        <v>0.1830224814931639</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03277285855654086</v>
+        <v>0.05070045367727442</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5184108524.89</v>
+        <v>3491830234.904793</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07522712475580387</v>
+        <v>0.08928564739139887</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02871988362910389</v>
+        <v>0.02144501331383836</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>249</v>
+      </c>
+      <c r="J13" t="n">
+        <v>480</v>
+      </c>
+      <c r="K13" t="n">
+        <v>29.2741887121488</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2742931021.023027</v>
+        <v>3364212321.706089</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1154810170482175</v>
+        <v>0.1666343891921109</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04224184035765158</v>
+        <v>0.02709718365898875</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>109</v>
+      </c>
+      <c r="J14" t="n">
+        <v>481</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1539265643.018504</v>
+        <v>1311956725.07247</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09761490540641465</v>
+        <v>0.07890230820799961</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03305504206162903</v>
+        <v>0.04389829340821117</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2176494963.529386</v>
+        <v>2649716018.176496</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1043580931097148</v>
+        <v>0.1134666684786397</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03623881443511642</v>
+        <v>0.04097501874903844</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3699659024.25252</v>
+        <v>3532274382.212116</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1263974062892593</v>
+        <v>0.1705829855520838</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03363893411759859</v>
+        <v>0.03756862197066199</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>235</v>
+      </c>
+      <c r="J17" t="n">
+        <v>481</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.97815797937122</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2835226638.505301</v>
+        <v>2648248009.177838</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1625970557821921</v>
+        <v>0.1820178160897612</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03175578188119906</v>
+        <v>0.03196107094162875</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>130</v>
+      </c>
+      <c r="J18" t="n">
+        <v>480</v>
+      </c>
+      <c r="K18" t="n">
+        <v>24.85374122891816</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1152856952.838936</v>
+        <v>930521972.2855458</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1854098045811218</v>
+        <v>0.1414903148646183</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01883091666196318</v>
+        <v>0.01795895833372044</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1912733198.614464</v>
+        <v>2628030169.329577</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1507080199668806</v>
+        <v>0.1380715625400651</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02453078765513122</v>
+        <v>0.02586622654770907</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2018793275.425677</v>
+        <v>1863064992.753936</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07228690192397461</v>
+        <v>0.06512646027735004</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02998462830913381</v>
+        <v>0.03572637592590475</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2439990446.373543</v>
+        <v>2712561504.283539</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09030669796617326</v>
+        <v>0.1430915750092908</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0387776149719983</v>
+        <v>0.03872340876118506</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>141</v>
+      </c>
+      <c r="J22" t="n">
+        <v>478</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1260623364.059756</v>
+        <v>1534855492.597884</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1602411694759279</v>
+        <v>0.1824039113099361</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05180897253438992</v>
+        <v>0.05429652579905698</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3015103409.358907</v>
+        <v>3209102483.21173</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1158939129653311</v>
+        <v>0.1366524450393577</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02658792973023064</v>
+        <v>0.02766639382781994</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>152</v>
+      </c>
+      <c r="J24" t="n">
+        <v>479</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1333384942.586066</v>
+        <v>1215264608.971869</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09461964956996535</v>
+        <v>0.08765459829814794</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0208472812465938</v>
+        <v>0.03056109320083307</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1037646666.320644</v>
+        <v>1104687350.348868</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09821402751453033</v>
+        <v>0.08078711610082462</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03076848659045872</v>
+        <v>0.03355706814429428</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3673226570.673283</v>
+        <v>2959222070.096197</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1330446757288782</v>
+        <v>0.1075994293969123</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01841008213099109</v>
+        <v>0.01844815129885054</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>214</v>
+      </c>
+      <c r="J27" t="n">
+        <v>480</v>
+      </c>
+      <c r="K27" t="n">
+        <v>20.90992371509654</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1417,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3095821214.759676</v>
+        <v>2468912858.264275</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1193586319587386</v>
+        <v>0.1254246423040302</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04055467362150971</v>
+        <v>0.04741936767309494</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>119</v>
+      </c>
+      <c r="J28" t="n">
+        <v>480</v>
+      </c>
+      <c r="K28" t="n">
+        <v>23.32104790495825</v>
       </c>
     </row>
     <row r="29">
@@ -1242,17 +1460,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4680991136.892632</v>
+        <v>4683193880.467682</v>
       </c>
       <c r="F29" t="n">
-        <v>0.098910775863187</v>
+        <v>0.1248601838534884</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04452677771927856</v>
+        <v>0.04220093491375411</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>381</v>
+      </c>
+      <c r="J29" t="n">
+        <v>481</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2156643731.124863</v>
+        <v>1926928105.799095</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09836168628887604</v>
+        <v>0.106791326305892</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03687533854873967</v>
+        <v>0.03871399557761907</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1459742105.666347</v>
+        <v>1073913253.701188</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1007686212451769</v>
+        <v>0.07604087554083079</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04995856701836576</v>
+        <v>0.03561871434523187</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1176812443.82558</v>
+        <v>1256263163.351622</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09814596412486944</v>
+        <v>0.08468906146220229</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03026886753157069</v>
+        <v>0.03247169833362798</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2796861976.721963</v>
+        <v>3106256412.950533</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1577067060889653</v>
+        <v>0.1380216116583722</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0520377204098753</v>
+        <v>0.04116750086874453</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1027776847.646485</v>
+        <v>1543729345.202455</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07474054423251793</v>
+        <v>0.08804019630915857</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0231877986344144</v>
+        <v>0.0205058828997655</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1152555286.743106</v>
+        <v>855490001.1803427</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08332957668851235</v>
+        <v>0.1133381931730796</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03134554508224709</v>
+        <v>0.0332056069605008</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2486176184.77413</v>
+        <v>3107391465.333956</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1672107476201928</v>
+        <v>0.1537234593102704</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02517769222463753</v>
+        <v>0.02577991052411959</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2705832488.038195</v>
+        <v>1893128122.984705</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08714251931062959</v>
+        <v>0.07340318046851799</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03244323339687119</v>
+        <v>0.032121788684973</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2128523318.491011</v>
+        <v>1826139854.093576</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1166254295565453</v>
+        <v>0.09855012324075556</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02972504369577026</v>
+        <v>0.03090286124797999</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2063076925.781211</v>
+        <v>2224721749.956105</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1239158431231782</v>
+        <v>0.1845713861256043</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02972894753375876</v>
+        <v>0.02287315021988107</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1574049027.091971</v>
+        <v>1653780104.557411</v>
       </c>
       <c r="F40" t="n">
-        <v>0.111900426363749</v>
+        <v>0.1375036342868936</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04761931535273604</v>
+        <v>0.05822209450027336</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2174288787.288993</v>
+        <v>2306389916.938413</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1208916429516557</v>
+        <v>0.1026269903210986</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04096063612116175</v>
+        <v>0.03686661758831444</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3164864646.835433</v>
+        <v>2939585238.908231</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08452653851514887</v>
+        <v>0.08761714948475977</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02838424986571631</v>
+        <v>0.04191118815066732</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>208</v>
+      </c>
+      <c r="J42" t="n">
+        <v>478</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1853963444.812675</v>
+        <v>2395649094.059559</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1858470000077266</v>
+        <v>0.1790631106460115</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02439193809868329</v>
+        <v>0.0216874153987928</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2328523762.057085</v>
+        <v>2329287243.269713</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07800288673612214</v>
+        <v>0.06885912033167879</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02559872586747729</v>
+        <v>0.02582961444074361</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2331252562.294141</v>
+        <v>1642424233.399968</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1634954020995209</v>
+        <v>0.1189215251149211</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04281979597183659</v>
+        <v>0.04865612191221923</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3751012598.975644</v>
+        <v>4553246365.094859</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1161375951083238</v>
+        <v>0.1165758500196698</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04443024450112582</v>
+        <v>0.05563793190134176</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>283</v>
+      </c>
+      <c r="J46" t="n">
+        <v>481</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3773749122.408361</v>
+        <v>3249227201.381738</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1995958732749819</v>
+        <v>0.1786839175850984</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05942635796902047</v>
+        <v>0.04072223193552046</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>218</v>
+      </c>
+      <c r="J47" t="n">
+        <v>480</v>
+      </c>
+      <c r="K47" t="n">
+        <v>25.89366419080328</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4367627275.235269</v>
+        <v>3161983289.616551</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06843571243130628</v>
+        <v>0.07888332648406596</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03004830619408349</v>
+        <v>0.03438543669844481</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>241</v>
+      </c>
+      <c r="J48" t="n">
+        <v>479</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1351964163.760329</v>
+        <v>1853192662.363089</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1198404957804536</v>
+        <v>0.1566146606526479</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03428830790068066</v>
+        <v>0.04234793237804534</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3703392531.88046</v>
+        <v>2942926102.371911</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1313065374801103</v>
+        <v>0.1777849406979477</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04230698645627772</v>
+        <v>0.04411186868774464</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>172</v>
+      </c>
+      <c r="J50" t="n">
+        <v>479</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1152421823.351635</v>
+        <v>1065008840.361821</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165456451794238</v>
+        <v>0.1637438538432961</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03446795568311769</v>
+        <v>0.03623710487566226</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4602602695.38644</v>
+        <v>3761834232.384966</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1207135537993665</v>
+        <v>0.1095950931648761</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04565335606545511</v>
+        <v>0.05634107390579746</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>269</v>
+      </c>
+      <c r="J52" t="n">
+        <v>481</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2920469932.698821</v>
+        <v>2673749905.474278</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1553190839367791</v>
+        <v>0.2026809763134505</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02342454940318947</v>
+        <v>0.02900213023843096</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2337,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3215403777.812309</v>
+        <v>3623710388.008844</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1075674980480178</v>
+        <v>0.1323846026867035</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04789221469772403</v>
+        <v>0.04564830408628161</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>253</v>
+      </c>
+      <c r="J54" t="n">
+        <v>481</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2372,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4934322501.730662</v>
+        <v>4199760399.256279</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1816608025810626</v>
+        <v>0.2142060138938293</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02711350970500585</v>
+        <v>0.02838579138006373</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>237</v>
+      </c>
+      <c r="J55" t="n">
+        <v>481</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1319392141.274532</v>
+        <v>1596177042.845772</v>
       </c>
       <c r="F56" t="n">
-        <v>0.120621771377085</v>
+        <v>0.1440865316777896</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0511118329184278</v>
+        <v>0.05130015268169796</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3496949215.914141</v>
+        <v>4403868934.199754</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1704386582083207</v>
+        <v>0.1312907259825725</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01849447640412921</v>
+        <v>0.0247598186977766</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>207</v>
+      </c>
+      <c r="J57" t="n">
+        <v>481</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1874962116.314711</v>
+        <v>1270641387.380025</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1369705131027509</v>
+        <v>0.166745104138841</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0331862446466509</v>
+        <v>0.02721657442373184</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2506,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4922681996.900102</v>
+        <v>5041708791.448809</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08548750949392145</v>
+        <v>0.1175721588255144</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04938316043347322</v>
+        <v>0.04521873749549885</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>235</v>
+      </c>
+      <c r="J59" t="n">
+        <v>481</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2978385137.583343</v>
+        <v>3260431848.927664</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1798300302636474</v>
+        <v>0.189878598185327</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03181488266203884</v>
+        <v>0.02352773369905459</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>97</v>
+      </c>
+      <c r="J60" t="n">
+        <v>477</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2576,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2251540086.065935</v>
+        <v>2987638503.578613</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1692098525236263</v>
+        <v>0.1577009334197722</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02451888160075931</v>
+        <v>0.0231468788162014</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2617,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1422142268.883112</v>
+        <v>1653260103.347239</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1595692280443882</v>
+        <v>0.1735272743143647</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04851834809513632</v>
+        <v>0.03694663262601236</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2646,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4865466956.668146</v>
+        <v>4079684765.903899</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08323886493060988</v>
+        <v>0.09942663443185082</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03039381108567006</v>
+        <v>0.03077119302426186</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>240</v>
+      </c>
+      <c r="J63" t="n">
+        <v>480</v>
+      </c>
+      <c r="K63" t="n">
+        <v>27.81830773441188</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2683,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4821468911.058199</v>
+        <v>3765267835.804114</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1573277724750188</v>
+        <v>0.1375931543981367</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02321336797740264</v>
+        <v>0.02499162636411144</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>240</v>
+      </c>
+      <c r="J64" t="n">
+        <v>480</v>
+      </c>
+      <c r="K64" t="n">
+        <v>28.35716842122843</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5381581903.937321</v>
+        <v>4440736562.761623</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1417345742997396</v>
+        <v>0.1487934113856857</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02172422074753552</v>
+        <v>0.03005523249019036</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>338</v>
+      </c>
+      <c r="J65" t="n">
+        <v>480</v>
+      </c>
+      <c r="K65" t="n">
+        <v>27.09601732114323</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3719356416.070368</v>
+        <v>4232747195.66311</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1435675414467801</v>
+        <v>0.1097689840446911</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04978050316928561</v>
+        <v>0.04698006285162343</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>238</v>
+      </c>
+      <c r="J66" t="n">
+        <v>480</v>
+      </c>
+      <c r="K66" t="n">
+        <v>26.98345223881953</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2815129728.482671</v>
+        <v>2439996383.951183</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06610915975812011</v>
+        <v>0.09703974454962586</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04134257156621024</v>
+        <v>0.03337608033169878</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2835,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3882099345.253505</v>
+        <v>5959398284.316419</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1178804888750279</v>
+        <v>0.1129267445422287</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0445186540114698</v>
+        <v>0.04183028648669176</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>261</v>
+      </c>
+      <c r="J68" t="n">
+        <v>481</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2300322862.499217</v>
+        <v>2472678432.40168</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1500810343084472</v>
+        <v>0.1469095542643185</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05130299781240644</v>
+        <v>0.06005707536313977</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2905,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3228872358.373548</v>
+        <v>3722010294.480085</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07968815387053302</v>
+        <v>0.06454256882910224</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03104106594741654</v>
+        <v>0.04977438940776886</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>481</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4785251638.420655</v>
+        <v>4040293850.626242</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1664171849302291</v>
+        <v>0.1502106059643718</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02437731203995501</v>
+        <v>0.02165109581095638</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>325</v>
+      </c>
+      <c r="J71" t="n">
+        <v>480</v>
+      </c>
+      <c r="K71" t="n">
+        <v>26.22735258025448</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1994988899.425604</v>
+        <v>1760039222.20995</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06555134334291493</v>
+        <v>0.103643546206062</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03958687910923599</v>
+        <v>0.04578057103491848</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,16 +3012,25 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2204109400.960293</v>
+        <v>2841038996.577251</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09750171896817768</v>
+        <v>0.06893994204121211</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04733381800758051</v>
+        <v>0.04751049203459015</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>45</v>
+      </c>
+      <c r="J73" t="n">
+        <v>481</v>
+      </c>
+      <c r="K73" t="n">
+        <v>44.49286520274714</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3280509132.879287</v>
+        <v>3066106866.105973</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1252511920761958</v>
+        <v>0.1799324074165365</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02869929036714078</v>
+        <v>0.03120668702940859</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>142</v>
+      </c>
+      <c r="J74" t="n">
+        <v>474</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1520142222.794607</v>
+        <v>2177456658.461528</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1157512361158327</v>
+        <v>0.1558420183675458</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03554265457402332</v>
+        <v>0.03248242039059879</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4698605529.048453</v>
+        <v>3832686964.42833</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09565570109278504</v>
+        <v>0.08543913231582072</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0307641714222139</v>
+        <v>0.03354729881045887</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>230</v>
+      </c>
+      <c r="J76" t="n">
+        <v>480</v>
+      </c>
+      <c r="K76" t="n">
+        <v>29.53992119988582</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1851554542.506556</v>
+        <v>1788208504.86884</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1406228353518179</v>
+        <v>0.1150703440509983</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02326360297935163</v>
+        <v>0.0214927509811347</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3785766290.187721</v>
+        <v>3057645312.900611</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1000253595989375</v>
+        <v>0.1054046738760872</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05094945954535896</v>
+        <v>0.05151391894319866</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>239</v>
+      </c>
+      <c r="J78" t="n">
+        <v>479</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1465321600.7534</v>
+        <v>1354150398.020872</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1320772954334304</v>
+        <v>0.1741283484603586</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02963660830583786</v>
+        <v>0.03672358743063965</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5129194338.092485</v>
+        <v>4112264049.48758</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1057399455982735</v>
+        <v>0.07276792222631377</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02643755159538895</v>
+        <v>0.0286894507346096</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>235</v>
+      </c>
+      <c r="J80" t="n">
+        <v>480</v>
+      </c>
+      <c r="K80" t="n">
+        <v>26.48473407418692</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5011354755.450757</v>
+        <v>4128142318.711623</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08478010900360508</v>
+        <v>0.1116005207837694</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03200459999552423</v>
+        <v>0.03044236100709239</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>225</v>
+      </c>
+      <c r="J81" t="n">
+        <v>480</v>
+      </c>
+      <c r="K81" t="n">
+        <v>28.85373791041485</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3691713924.122</v>
+        <v>3428552549.099211</v>
       </c>
       <c r="F82" t="n">
-        <v>0.143705909964899</v>
+        <v>0.1938915562924456</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02856036461461386</v>
+        <v>0.02165742206328255</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>316</v>
+      </c>
+      <c r="J82" t="n">
+        <v>481</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2424967802.071479</v>
+        <v>1997204193.061543</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1083054986923438</v>
+        <v>0.1378830971713094</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03093292240407189</v>
+        <v>0.03061616589249725</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2171480528.917427</v>
+        <v>2235462287.632881</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08859184056937058</v>
+        <v>0.09133126803267314</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03340829110886435</v>
+        <v>0.03966642395047146</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3503094218.039594</v>
+        <v>2575391147.029135</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1597478707354799</v>
+        <v>0.1775051467782957</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0519132150353106</v>
+        <v>0.05361280777137106</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>72</v>
+      </c>
+      <c r="J85" t="n">
+        <v>479</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1983228839.671979</v>
+        <v>2629060851.311512</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1055356959011714</v>
+        <v>0.1312937062345119</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02029532123673707</v>
+        <v>0.02027532994018754</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1143700109.627615</v>
+        <v>1446273986.205715</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1308217511650286</v>
+        <v>0.1503381936921877</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0279900658997982</v>
+        <v>0.04427815284263266</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3545,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3247682913.243411</v>
+        <v>2873966983.857059</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1749223460200265</v>
+        <v>0.1097655482006617</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03952631610674565</v>
+        <v>0.02450480341739255</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>68</v>
+      </c>
+      <c r="J88" t="n">
+        <v>481</v>
+      </c>
+      <c r="K88" t="n">
+        <v>36.30634090554236</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2574841858.706614</v>
+        <v>2574534175.298008</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1329179743749108</v>
+        <v>0.1468998421488444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03882885787227022</v>
+        <v>0.02578525749918359</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1529053021.264926</v>
+        <v>1938529737.470198</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09003415764851129</v>
+        <v>0.1242818708611641</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05501065687228554</v>
+        <v>0.05642651258005508</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1370144596.250879</v>
+        <v>2032186137.794154</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1359990535643412</v>
+        <v>0.1584694033370369</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04122077346933924</v>
+        <v>0.04416762721125099</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2057326114.207917</v>
+        <v>2318207967.883317</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06791393066617479</v>
+        <v>0.07786385349222123</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04251670760903385</v>
+        <v>0.03172080073429434</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3427295301.384058</v>
+        <v>4776399740.401572</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1329101912179268</v>
+        <v>0.09836467667854853</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04135082828161579</v>
+        <v>0.04327405562271797</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>230</v>
+      </c>
+      <c r="J93" t="n">
+        <v>481</v>
+      </c>
+      <c r="K93" t="n">
+        <v>31.07736769684804</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2055359726.206468</v>
+        <v>2497955586.262522</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1435218314447702</v>
+        <v>0.1218805148109102</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03740995115484399</v>
+        <v>0.04198613916944426</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3184242746.782302</v>
+        <v>2167365208.125424</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1151551415087788</v>
+        <v>0.08587055728801214</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05164814095375006</v>
+        <v>0.04991703719666692</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2235610324.562387</v>
+        <v>1936318829.175037</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1038367691375346</v>
+        <v>0.1133111776963177</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03885118922772894</v>
+        <v>0.04337118875650189</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4713018526.950873</v>
+        <v>4283230719.304348</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1726640613138678</v>
+        <v>0.1143171051766651</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0219280240014953</v>
+        <v>0.02510646161483588</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>250</v>
+      </c>
+      <c r="J97" t="n">
+        <v>481</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2813697181.118519</v>
+        <v>2614873701.794616</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09694373562109934</v>
+        <v>0.1268495125120793</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02003328940117073</v>
+        <v>0.03112785174262057</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>124</v>
+      </c>
+      <c r="J98" t="n">
+        <v>480</v>
+      </c>
+      <c r="K98" t="n">
+        <v>23.0603169008068</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3008428430.693775</v>
+        <v>3220776713.660601</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1346322347354876</v>
+        <v>0.1404913975438351</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03455201086425035</v>
+        <v>0.02717938018333697</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4667845840.87529</v>
+        <v>4616031487.375038</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1586083551959652</v>
+        <v>0.112613929630545</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02053303040912011</v>
+        <v>0.01735029881765956</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>224</v>
+      </c>
+      <c r="J100" t="n">
+        <v>481</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2865182830.892096</v>
+        <v>2352535360.036658</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1533020623474188</v>
+        <v>0.1610086617533592</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05003558976597395</v>
+        <v>0.03845774145171568</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
